--- a/biology/Biologie cellulaire et moléculaire/DnaA/DnaA.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/DnaA/DnaA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 DnaA est un facteur d'initiation de la réplication de l'ADN chez les procaryotes, qui promeut le déroulement ou la dénaturation de l'ADN au locus oriC (de 245 paires de bases (pb) chez E. coli).
